--- a/transit_data.xlsx
+++ b/transit_data.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9975497231576951</v>
+        <v>0.9953325274158287</v>
       </c>
       <c r="B2" t="n">
-        <v>0.001772536114022684</v>
+        <v>0.007122866005777721</v>
       </c>
       <c r="C2" t="n">
         <v>1720421416.36</v>
@@ -463,10 +463,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.996115260477064</v>
+        <v>0.9943729907117201</v>
       </c>
       <c r="B3" t="n">
-        <v>0.001190880041519568</v>
+        <v>0.007035804111341461</v>
       </c>
       <c r="C3" t="n">
         <v>1720421456.47</v>
@@ -474,10 +474,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9946979388491641</v>
+        <v>0.9912621486195938</v>
       </c>
       <c r="B4" t="n">
-        <v>0.002859941856781557</v>
+        <v>0.007125331365227716</v>
       </c>
       <c r="C4" t="n">
         <v>1720421496.84</v>
@@ -485,10 +485,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9932977582756582</v>
+        <v>0.9894557120109951</v>
       </c>
       <c r="B5" t="n">
-        <v>0.003288167586216569</v>
+        <v>0.00713193959608156</v>
       </c>
       <c r="C5" t="n">
         <v>1720421537.38</v>
@@ -496,10 +496,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9919147187560324</v>
+        <v>0.9910564654060122</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0003922522634684886</v>
+        <v>0.006937899500453057</v>
       </c>
       <c r="C6" t="n">
         <v>1720421577.54</v>
@@ -507,10 +507,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9905488202904033</v>
+        <v>0.9903930897029078</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0004299979655420765</v>
+        <v>0.006975417538550225</v>
       </c>
       <c r="C7" t="n">
         <v>1720421617.61</v>
@@ -518,10 +518,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.989200062878745</v>
+        <v>0.9949191476720568</v>
       </c>
       <c r="B8" t="n">
-        <v>0.006453501783838838</v>
+        <v>0.007014657316577274</v>
       </c>
       <c r="C8" t="n">
         <v>1720421657.69</v>
@@ -529,10 +529,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9878684465210638</v>
+        <v>0.9883714312522213</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0007184552648284702</v>
+        <v>0.007050189271450989</v>
       </c>
       <c r="C9" t="n">
         <v>1720421697.85</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9865539712173574</v>
+        <v>0.9861973183987457</v>
       </c>
       <c r="B10" t="n">
-        <v>0.000126056876339375</v>
+        <v>0.006934556202713087</v>
       </c>
       <c r="C10" t="n">
         <v>1720421738.1</v>
@@ -551,10 +551,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9852566369676296</v>
+        <v>0.9852742008870643</v>
       </c>
       <c r="B11" t="n">
-        <v>7.941907786866009e-05</v>
+        <v>0.006981066757938874</v>
       </c>
       <c r="C11" t="n">
         <v>1720421778.62</v>
@@ -562,10 +562,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9839764437718751</v>
+        <v>0.986003069661453</v>
       </c>
       <c r="B12" t="n">
-        <v>0.002488950979037181</v>
+        <v>0.007119684063940759</v>
       </c>
       <c r="C12" t="n">
         <v>1720421818.89</v>
@@ -573,10 +573,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9827133916300993</v>
+        <v>0.9832153023319419</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0005406866706505363</v>
+        <v>0.006921020345794437</v>
       </c>
       <c r="C13" t="n">
         <v>1720421859.84</v>
@@ -584,10 +584,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9814674805423053</v>
+        <v>0.9790418223171506</v>
       </c>
       <c r="B14" t="n">
-        <v>0.002686258390209275</v>
+        <v>0.007043322060218514</v>
       </c>
       <c r="C14" t="n">
         <v>1720421899.99</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9802387105084811</v>
+        <v>0.9814304331064685</v>
       </c>
       <c r="B15" t="n">
-        <v>0.001314365107454637</v>
+        <v>0.007002273234597404</v>
       </c>
       <c r="C15" t="n">
         <v>1720421940.07</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9790270815286348</v>
+        <v>0.9789641272394487</v>
       </c>
       <c r="B16" t="n">
-        <v>0.000217863315701319</v>
+        <v>0.007036629990295836</v>
       </c>
       <c r="C16" t="n">
         <v>1720421980.21</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9778325936027641</v>
+        <v>0.9784992875663328</v>
       </c>
       <c r="B17" t="n">
-        <v>0.001308331692173122</v>
+        <v>0.007141514734477418</v>
       </c>
       <c r="C17" t="n">
         <v>1720422020.23</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9766552467308689</v>
+        <v>0.9769562552302401</v>
       </c>
       <c r="B18" t="n">
-        <v>7.063792940016133e-05</v>
+        <v>0.006967857772594867</v>
       </c>
       <c r="C18" t="n">
         <v>1720422060.37</v>
@@ -639,10 +639,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9754950409129529</v>
+        <v>0.9786328952638267</v>
       </c>
       <c r="B19" t="n">
-        <v>0.003680573830918334</v>
+        <v>0.007068597298472733</v>
       </c>
       <c r="C19" t="n">
         <v>1720422100.44</v>
@@ -650,10 +650,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9743519761490069</v>
+        <v>0.9752716164451607</v>
       </c>
       <c r="B20" t="n">
-        <v>0.001458095773420071</v>
+        <v>0.007549257915949526</v>
       </c>
       <c r="C20" t="n">
         <v>1720422140.45</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9732260524390404</v>
+        <v>0.9738266478152772</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0006639371835460887</v>
+        <v>0.007094103542388577</v>
       </c>
       <c r="C21" t="n">
         <v>1720422181.24</v>
@@ -672,10 +672,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.972117269783056</v>
+        <v>0.9703385551290217</v>
       </c>
       <c r="B22" t="n">
-        <v>0.001503063149697622</v>
+        <v>0.007116945073459609</v>
       </c>
       <c r="C22" t="n">
         <v>1720422221.3</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9710256281810417</v>
+        <v>0.9739315564842799</v>
       </c>
       <c r="B23" t="n">
-        <v>0.003443246552636249</v>
+        <v>0.007191952155962402</v>
       </c>
       <c r="C23" t="n">
         <v>1720422261.37</v>
@@ -694,10 +694,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9699511276330058</v>
+        <v>0.9681604196638445</v>
       </c>
       <c r="B24" t="n">
-        <v>0.001825139807575859</v>
+        <v>0.007106006712524315</v>
       </c>
       <c r="C24" t="n">
         <v>1720422301.52</v>
@@ -705,10 +705,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9688937681389452</v>
+        <v>0.9666864644779888</v>
       </c>
       <c r="B25" t="n">
-        <v>0.002193586689407375</v>
+        <v>0.007059496324748138</v>
       </c>
       <c r="C25" t="n">
         <v>1720422341.53</v>
@@ -716,10 +716,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9678535496988611</v>
+        <v>0.9687335795001984</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0009721945001308002</v>
+        <v>0.00714433520606221</v>
       </c>
       <c r="C26" t="n">
         <v>1720422381.71</v>
@@ -727,10 +727,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9668304723127336</v>
+        <v>0.9671639900997852</v>
       </c>
       <c r="B27" t="n">
-        <v>0.000784605586739563</v>
+        <v>0.00715220867746817</v>
       </c>
       <c r="C27" t="n">
         <v>1720422421.77</v>
@@ -738,10 +738,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9657201535092619</v>
+        <v>0.9655197623341594</v>
       </c>
       <c r="B28" t="n">
-        <v>5.18197177166123e-05</v>
+        <v>0.007095501991527762</v>
       </c>
       <c r="C28" t="n">
         <v>1720422461.98</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9646768733842775</v>
+        <v>0.9636693989241515</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0005026966182467311</v>
+        <v>0.007049166670888177</v>
       </c>
       <c r="C29" t="n">
         <v>1720422502.04</v>
@@ -760,10 +760,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9636839339801455</v>
+        <v>0.9655572227970338</v>
       </c>
       <c r="B30" t="n">
-        <v>0.002618445445390444</v>
+        <v>0.00704416175054795</v>
       </c>
       <c r="C30" t="n">
         <v>1720422542.09</v>
@@ -771,10 +771,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.962492731569172</v>
+        <v>0.9578850357164358</v>
       </c>
       <c r="B31" t="n">
-        <v>0.004345836205608715</v>
+        <v>0.007167784238803173</v>
       </c>
       <c r="C31" t="n">
         <v>1720422582.14</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9614732885133787</v>
+        <v>0.9628368040526309</v>
       </c>
       <c r="B32" t="n">
-        <v>0.002016541213629594</v>
+        <v>0.007142044286513449</v>
       </c>
       <c r="C32" t="n">
         <v>1720422622.19</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9604310716367636</v>
+        <v>0.9616531441071026</v>
       </c>
       <c r="B33" t="n">
-        <v>0.00169240832656994</v>
+        <v>0.007240660563017591</v>
       </c>
       <c r="C33" t="n">
         <v>1720422662.26</v>
@@ -804,10 +804,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9595720916796522</v>
+        <v>0.957630812446393</v>
       </c>
       <c r="B34" t="n">
-        <v>0.00178810694058587</v>
+        <v>0.007137513499854515</v>
       </c>
       <c r="C34" t="n">
         <v>1720422702.29</v>
@@ -815,10 +815,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9586540087529108</v>
+        <v>0.9565383475889451</v>
       </c>
       <c r="B35" t="n">
-        <v>0.001517790297348736</v>
+        <v>0.007263832639887296</v>
       </c>
       <c r="C35" t="n">
         <v>1720422742.41</v>
@@ -826,10 +826,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9576847419660858</v>
+        <v>0.9565779978489144</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0002589716971130373</v>
+        <v>0.00709068350609133</v>
       </c>
       <c r="C36" t="n">
         <v>1720422782.68</v>
@@ -837,10 +837,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9568514040086691</v>
+        <v>0.9571007149692249</v>
       </c>
       <c r="B37" t="n">
-        <v>0.001040501150065503</v>
+        <v>0.007087856117627236</v>
       </c>
       <c r="C37" t="n">
         <v>1720422822.74</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9561118456393501</v>
+        <v>0.956136168089029</v>
       </c>
       <c r="B38" t="n">
-        <v>0.00043947623700221</v>
+        <v>0.007203007946797195</v>
       </c>
       <c r="C38" t="n">
         <v>1720422862.73</v>
@@ -859,10 +859,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9552634211803164</v>
+        <v>0.9542843097700852</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0004337401946910811</v>
+        <v>0.007187781903413471</v>
       </c>
       <c r="C39" t="n">
         <v>1720422902.72</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9544424441711411</v>
+        <v>0.9552280369903792</v>
       </c>
       <c r="B40" t="n">
-        <v>0.001442087028021517</v>
+        <v>0.007305574288312153</v>
       </c>
       <c r="C40" t="n">
         <v>1720422942.92</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.95371616433567</v>
+        <v>0.9553933905997962</v>
       </c>
       <c r="B41" t="n">
-        <v>0.002309697745242927</v>
+        <v>0.007040386330451776</v>
       </c>
       <c r="C41" t="n">
         <v>1720422983.02</v>
@@ -892,10 +892,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9529760803907412</v>
+        <v>0.949861487146339</v>
       </c>
       <c r="B42" t="n">
-        <v>0.002832213583047124</v>
+        <v>0.007154019746774116</v>
       </c>
       <c r="C42" t="n">
         <v>1720423023.11</v>
@@ -903,10 +903,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9523293117340051</v>
+        <v>0.9521899404819343</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0002347654480592316</v>
+        <v>0.007205442748123036</v>
       </c>
       <c r="C43" t="n">
         <v>1720423063.16</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9515927585853906</v>
+        <v>0.951018156134999</v>
       </c>
       <c r="B44" t="n">
-        <v>0.000431493030014503</v>
+        <v>0.007236387613872255</v>
       </c>
       <c r="C44" t="n">
         <v>1720423103.2</v>
@@ -925,10 +925,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9511021775990947</v>
+        <v>0.9493282912851453</v>
       </c>
       <c r="B45" t="n">
-        <v>0.001411684646716929</v>
+        <v>0.007119236566858055</v>
       </c>
       <c r="C45" t="n">
         <v>1720423143.32</v>
@@ -936,10 +936,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.950545711473066</v>
+        <v>0.9498116161862498</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0003609842368945851</v>
+        <v>0.007260726687534714</v>
       </c>
       <c r="C46" t="n">
         <v>1720423183.34</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9500457196951904</v>
+        <v>0.9487376278794483</v>
       </c>
       <c r="B47" t="n">
-        <v>0.001054342500877729</v>
+        <v>0.007251640654944942</v>
       </c>
       <c r="C47" t="n">
         <v>1720423223.64</v>
@@ -958,10 +958,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9494532024204064</v>
+        <v>0.9480073519496222</v>
       </c>
       <c r="B48" t="n">
-        <v>0.001085804207450111</v>
+        <v>0.007194926345103344</v>
       </c>
       <c r="C48" t="n">
         <v>1720423263.51</v>
@@ -969,10 +969,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9491039764913447</v>
+        <v>0.9459106980540168</v>
       </c>
       <c r="B49" t="n">
-        <v>0.002973460144095012</v>
+        <v>0.007175450491356378</v>
       </c>
       <c r="C49" t="n">
         <v>1720423303.7</v>
@@ -980,10 +980,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9486674646662937</v>
+        <v>0.9507484762293298</v>
       </c>
       <c r="B50" t="n">
-        <v>0.002935268632072081</v>
+        <v>0.007132161933332604</v>
       </c>
       <c r="C50" t="n">
         <v>1720423343.76</v>
@@ -991,10 +991,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9482759892859689</v>
+        <v>0.9480518009749221</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0001650840537540312</v>
+        <v>0.00715442416279258</v>
       </c>
       <c r="C51" t="n">
         <v>1720423383.88</v>
@@ -1002,10 +1002,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9480570959777656</v>
+        <v>0.9510738382854068</v>
       </c>
       <c r="B52" t="n">
-        <v>0.00370514396314722</v>
+        <v>0.007240468291627626</v>
       </c>
       <c r="C52" t="n">
         <v>1720423423.94</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9478146930849697</v>
+        <v>0.947949446999486</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0002103438503800833</v>
+        <v>0.007209185019349986</v>
       </c>
       <c r="C53" t="n">
         <v>1720423463.97</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9475293204141945</v>
+        <v>0.9462509977410427</v>
       </c>
       <c r="B54" t="n">
-        <v>0.001341325727875395</v>
+        <v>0.007284002086417795</v>
       </c>
       <c r="C54" t="n">
         <v>1720423504.04</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.947197819396583</v>
+        <v>0.9421362917372822</v>
       </c>
       <c r="B55" t="n">
-        <v>0.005199938595207941</v>
+        <v>0.007147703476604304</v>
       </c>
       <c r="C55" t="n">
         <v>1720423544.12</v>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9468196046231806</v>
+        <v>0.9475932692618163</v>
       </c>
       <c r="B56" t="n">
-        <v>0.001284896614261269</v>
+        <v>0.007027566537341522</v>
       </c>
       <c r="C56" t="n">
         <v>1720423584.11</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9465969310752097</v>
+        <v>0.9451875029291426</v>
       </c>
       <c r="B57" t="n">
-        <v>0.001523255051194262</v>
+        <v>0.007375266009684308</v>
       </c>
       <c r="C57" t="n">
         <v>1720423624.2</v>
@@ -1068,10 +1068,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9464721808919249</v>
+        <v>0.9468395007699174</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0007501736915594589</v>
+        <v>0.007232522166737217</v>
       </c>
       <c r="C58" t="n">
         <v>1720423664.22</v>
@@ -1079,10 +1079,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9462429603006496</v>
+        <v>0.9483186022616826</v>
       </c>
       <c r="B59" t="n">
-        <v>0.002329003595319314</v>
+        <v>0.007291268804250598</v>
       </c>
       <c r="C59" t="n">
         <v>1720423704.42</v>
@@ -1090,10 +1090,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.946214416840319</v>
+        <v>0.9458246948028296</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0001436253204578909</v>
+        <v>0.007112732873146304</v>
       </c>
       <c r="C60" t="n">
         <v>1720423744.43</v>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9460216578279677</v>
+        <v>0.9481728492009093</v>
       </c>
       <c r="B61" t="n">
-        <v>0.002357900541826248</v>
+        <v>0.007386438562623685</v>
       </c>
       <c r="C61" t="n">
         <v>1720423784.42</v>
@@ -1112,10 +1112,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9460064367283886</v>
+        <v>0.9446228631725555</v>
       </c>
       <c r="B62" t="n">
-        <v>0.001398702376838325</v>
+        <v>0.007101884537829241</v>
       </c>
       <c r="C62" t="n">
         <v>1720423824.47</v>
@@ -1123,10 +1123,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9459859425283048</v>
+        <v>0.9445048334467701</v>
       </c>
       <c r="B63" t="n">
-        <v>0.001369725507108597</v>
+        <v>0.007120849459847926</v>
       </c>
       <c r="C63" t="n">
         <v>1720423864.51</v>
@@ -1134,10 +1134,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9460843025552784</v>
+        <v>0.947643435751891</v>
       </c>
       <c r="B64" t="n">
-        <v>0.001707861153229687</v>
+        <v>0.007189176823843569</v>
       </c>
       <c r="C64" t="n">
         <v>1720423904.64</v>
@@ -1145,10 +1145,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9460274145124783</v>
+        <v>0.9441953338681698</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001765262661606125</v>
+        <v>0.007339427890709259</v>
       </c>
       <c r="C65" t="n">
         <v>1720423944.69</v>
@@ -1156,10 +1156,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9461243502208737</v>
+        <v>0.9456162609262698</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0003926299011333468</v>
+        <v>0.007296904579131923</v>
       </c>
       <c r="C66" t="n">
         <v>1720423984.84</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9462528171305636</v>
+        <v>0.9454712376416711</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0004461280041070792</v>
+        <v>0.007726663047528128</v>
       </c>
       <c r="C67" t="n">
         <v>1720424024.96</v>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9462995925610302</v>
+        <v>0.9447253846995824</v>
       </c>
       <c r="B68" t="n">
-        <v>0.001098106941442342</v>
+        <v>0.007658703041002022</v>
       </c>
       <c r="C68" t="n">
         <v>1720424065.03</v>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9463649414928091</v>
+        <v>0.9481343226937106</v>
       </c>
       <c r="B69" t="n">
-        <v>0.002282226684710458</v>
+        <v>0.007091767213620341</v>
       </c>
       <c r="C69" t="n">
         <v>1720424105.1</v>
@@ -1200,10 +1200,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.9464167318670316</v>
+        <v>0.94526531679568</v>
       </c>
       <c r="B70" t="n">
-        <v>0.001082028494573728</v>
+        <v>0.007372759477530732</v>
       </c>
       <c r="C70" t="n">
         <v>1720424145.13</v>
@@ -1211,10 +1211,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9464677194312081</v>
+        <v>0.9465819697517062</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0007560952850300453</v>
+        <v>0.007338923580695161</v>
       </c>
       <c r="C71" t="n">
         <v>1720424185.2</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9465136842395434</v>
+        <v>0.9457925878983247</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0005300328352111051</v>
+        <v>0.007423445842394402</v>
       </c>
       <c r="C72" t="n">
         <v>1720424225.28</v>
@@ -1233,10 +1233,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9464856363183646</v>
+        <v>0.9479122695236204</v>
       </c>
       <c r="B73" t="n">
-        <v>0.002027122308107119</v>
+        <v>0.007544595040254547</v>
       </c>
       <c r="C73" t="n">
         <v>1720424265.31</v>
@@ -1244,10 +1244,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9465209168443997</v>
+        <v>0.9461509221971953</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0001169211773660871</v>
+        <v>0.007382495086434176</v>
       </c>
       <c r="C74" t="n">
         <v>1720424305.5</v>
@@ -1255,10 +1255,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9464081751198683</v>
+        <v>0.9458061979847711</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0005605409494117165</v>
+        <v>0.007542086575535734</v>
       </c>
       <c r="C75" t="n">
         <v>1720424345.68</v>
@@ -1266,10 +1266,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9466033439770816</v>
+        <v>0.9444269139842152</v>
       </c>
       <c r="B76" t="n">
-        <v>0.00206148177772121</v>
+        <v>0.00731530248354112</v>
       </c>
       <c r="C76" t="n">
         <v>1720424385.73</v>
@@ -1277,10 +1277,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9464740076677515</v>
+        <v>0.9424662618850864</v>
       </c>
       <c r="B77" t="n">
-        <v>0.004264228018465196</v>
+        <v>0.007290122683394186</v>
       </c>
       <c r="C77" t="n">
         <v>1720424425.77</v>
@@ -1288,10 +1288,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9465282050067512</v>
+        <v>0.9437468610332984</v>
       </c>
       <c r="B78" t="n">
-        <v>0.002843357706429224</v>
+        <v>0.007217830575819844</v>
       </c>
       <c r="C78" t="n">
         <v>1720424465.8</v>
@@ -1299,10 +1299,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9463168089788948</v>
+        <v>0.9457303030234657</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0009013977061017486</v>
+        <v>0.007420943745178967</v>
       </c>
       <c r="C79" t="n">
         <v>1720424505.92</v>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9461361159055012</v>
+        <v>0.9475268684900654</v>
       </c>
       <c r="B80" t="n">
-        <v>0.001582217601976839</v>
+        <v>0.007433937780217975</v>
       </c>
       <c r="C80" t="n">
         <v>1720424727.59</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9458285692276055</v>
+        <v>0.953296637544543</v>
       </c>
       <c r="B81" t="n">
-        <v>0.009132349806379728</v>
+        <v>0.007911065684901094</v>
       </c>
       <c r="C81" t="n">
         <v>1720424787.62</v>
@@ -1332,10 +1332,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9456071587765826</v>
+        <v>0.9437057974832721</v>
       </c>
       <c r="B82" t="n">
-        <v>0.002056381466368167</v>
+        <v>0.00775020396941133</v>
       </c>
       <c r="C82" t="n">
         <v>1720424827.67</v>
@@ -1343,10 +1343,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.945396120953358</v>
+        <v>0.9467247075129896</v>
       </c>
       <c r="B83" t="n">
-        <v>0.001601371795939575</v>
+        <v>0.007220302214199897</v>
       </c>
       <c r="C83" t="n">
         <v>1720424867.82</v>
@@ -1354,10 +1354,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.9451537455984474</v>
+        <v>0.9512586806211052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.007083073208051131</v>
+        <v>0.007320347315612115</v>
       </c>
       <c r="C84" t="n">
         <v>1720424907.82</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9449741773957595</v>
+        <v>0.9431268446452046</v>
       </c>
       <c r="B85" t="n">
-        <v>0.002371569253574345</v>
+        <v>0.007360030549429461</v>
       </c>
       <c r="C85" t="n">
         <v>1720424947.86</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.944801065235197</v>
+        <v>0.9486868297274486</v>
       </c>
       <c r="B86" t="n">
-        <v>0.004305645716807974</v>
+        <v>0.007498237790461528</v>
       </c>
       <c r="C86" t="n">
         <v>1720424988.06</v>
@@ -1387,10 +1387,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9447043187325881</v>
+        <v>0.9447738116947274</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0001920079038752658</v>
+        <v>0.00753708257989174</v>
       </c>
       <c r="C87" t="n">
         <v>1720425028.06</v>
@@ -1398,10 +1398,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9444021226899642</v>
+        <v>0.9462850303138179</v>
       </c>
       <c r="B88" t="n">
-        <v>0.002188285693251993</v>
+        <v>0.008012816417987604</v>
       </c>
       <c r="C88" t="n">
         <v>1720425068.05</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9440735391446664</v>
+        <v>0.9427206567783168</v>
       </c>
       <c r="B89" t="n">
-        <v>0.001917898159400419</v>
+        <v>0.007297423152885309</v>
       </c>
       <c r="C89" t="n">
         <v>1720425108.06</v>
@@ -1420,10 +1420,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9439943440435443</v>
+        <v>0.9471690718524522</v>
       </c>
       <c r="B90" t="n">
-        <v>0.002997294389830341</v>
+        <v>0.007613372014282716</v>
       </c>
       <c r="C90" t="n">
         <v>1720425148.14</v>
@@ -1431,10 +1431,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9436755686360754</v>
+        <v>0.9440183112135558</v>
       </c>
       <c r="B91" t="n">
-        <v>2.774775210621901e-05</v>
+        <v>0.007567481439955053</v>
       </c>
       <c r="C91" t="n">
         <v>1720425188.25</v>
@@ -1442,10 +1442,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9433685425162514</v>
+        <v>0.9434144246112204</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0004032525366210776</v>
+        <v>0.007604995138255783</v>
       </c>
       <c r="C92" t="n">
         <v>1720425228.29</v>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9431050210775892</v>
+        <v>0.9413809322957061</v>
       </c>
       <c r="B93" t="n">
-        <v>0.002025204462162799</v>
+        <v>0.007487316345060746</v>
       </c>
       <c r="C93" t="n">
         <v>1720425268.35</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9427629810329918</v>
+        <v>0.9423701261711965</v>
       </c>
       <c r="B94" t="n">
-        <v>5.166329245687254e-05</v>
+        <v>0.007433946278452523</v>
       </c>
       <c r="C94" t="n">
         <v>1720425308.43</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9425873105376197</v>
+        <v>0.9420897168320733</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0004913062266143425</v>
+        <v>0.007404333998370739</v>
       </c>
       <c r="C95" t="n">
         <v>1720425348.46</v>
@@ -1486,10 +1486,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9424506952469976</v>
+        <v>0.9404164771326103</v>
       </c>
       <c r="B96" t="n">
-        <v>0.002042818659549708</v>
+        <v>0.007567680962070758</v>
       </c>
       <c r="C96" t="n">
         <v>1720425388.52</v>
@@ -1497,10 +1497,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9422041108892641</v>
+        <v>0.9409973285054494</v>
       </c>
       <c r="B97" t="n">
-        <v>0.001512846405849958</v>
+        <v>0.007432866729985606</v>
       </c>
       <c r="C97" t="n">
         <v>1720425428.54</v>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9420652607176458</v>
+        <v>0.9419010703500289</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0001709570046337415</v>
+        <v>0.007551182609409745</v>
       </c>
       <c r="C98" t="n">
         <v>1720425468.71</v>
@@ -1519,10 +1519,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9418977560466908</v>
+        <v>0.9386423208205524</v>
       </c>
       <c r="B99" t="n">
-        <v>0.003521980002119604</v>
+        <v>0.007332046169007236</v>
       </c>
       <c r="C99" t="n">
         <v>1720425508.82</v>
@@ -1530,10 +1530,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9415290576092051</v>
+        <v>0.9408283200028863</v>
       </c>
       <c r="B100" t="n">
-        <v>0.001017288009662649</v>
+        <v>0.007719893636991079</v>
       </c>
       <c r="C100" t="n">
         <v>1720425548.88</v>
@@ -1541,10 +1541,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9411645176636553</v>
+        <v>0.9345180425437838</v>
       </c>
       <c r="B101" t="n">
-        <v>0.007232458909783741</v>
+        <v>0.007627059878100123</v>
       </c>
       <c r="C101" t="n">
         <v>1720425589.01</v>
@@ -1552,10 +1552,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.941050175293349</v>
+        <v>0.9419215960775509</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0004338128828979297</v>
+        <v>0.007524006332278078</v>
       </c>
       <c r="C102" t="n">
         <v>1720425629.07</v>
@@ -1563,10 +1563,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.9407348236937249</v>
+        <v>0.9384854992271487</v>
       </c>
       <c r="B103" t="n">
-        <v>0.002254327316423989</v>
+        <v>0.007664419229466453</v>
       </c>
       <c r="C103" t="n">
         <v>1720425669.19</v>
@@ -1574,10 +1574,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.9404913663860663</v>
+        <v>0.9439374736868391</v>
       </c>
       <c r="B104" t="n">
-        <v>0.004099701731197121</v>
+        <v>0.007679926909572791</v>
       </c>
       <c r="C104" t="n">
         <v>1720425709.25</v>
@@ -1585,10 +1585,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.9403653568394614</v>
+        <v>0.9418198270669501</v>
       </c>
       <c r="B105" t="n">
-        <v>0.001366421648813607</v>
+        <v>0.007195762246309379</v>
       </c>
       <c r="C105" t="n">
         <v>1720425749.27</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.9403596251642198</v>
+        <v>0.9413829878921905</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0009237702099716409</v>
+        <v>0.007405880153313489</v>
       </c>
       <c r="C106" t="n">
         <v>1720425789.38</v>
@@ -1607,10 +1607,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.9405505544289804</v>
+        <v>0.9438074200469773</v>
       </c>
       <c r="B107" t="n">
-        <v>0.00337735357350623</v>
+        <v>0.007649113846445075</v>
       </c>
       <c r="C107" t="n">
         <v>1720425829.42</v>
@@ -1618,10 +1618,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.9405167035065616</v>
+        <v>0.940611220773476</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0001462910190546905</v>
+        <v>0.007352658250014204</v>
       </c>
       <c r="C108" t="n">
         <v>1720425869.61</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.9406888480471479</v>
+        <v>0.9434921548318252</v>
       </c>
       <c r="B109" t="n">
-        <v>0.002732735284260589</v>
+        <v>0.007230950320461663</v>
       </c>
       <c r="C109" t="n">
         <v>1720425909.69</v>
@@ -1640,10 +1640,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.9410653158665082</v>
+        <v>0.9434171078405402</v>
       </c>
       <c r="B110" t="n">
-        <v>0.001816819673550803</v>
+        <v>0.007461325831478865</v>
       </c>
       <c r="C110" t="n">
         <v>1720425949.7</v>
@@ -1651,10 +1651,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.9411549988657208</v>
+        <v>0.9404614518635287</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0006601196552651351</v>
+        <v>0.007311315872814576</v>
       </c>
       <c r="C111" t="n">
         <v>1720425989.78</v>
@@ -1662,10 +1662,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.9414848872331588</v>
+        <v>0.9398790898651456</v>
       </c>
       <c r="B112" t="n">
-        <v>0.001957270113428119</v>
+        <v>0.007561365353380835</v>
       </c>
       <c r="C112" t="n">
         <v>1720426029.83</v>
@@ -1673,10 +1673,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.9417913909466908</v>
+        <v>0.9428828247629738</v>
       </c>
       <c r="B113" t="n">
-        <v>0.001246550689533031</v>
+        <v>0.007263596392785122</v>
       </c>
       <c r="C113" t="n">
         <v>1720426069.85</v>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.9421855482836911</v>
+        <v>0.943843628317994</v>
       </c>
       <c r="B114" t="n">
-        <v>0.001797382396773433</v>
+        <v>0.00723305443626199</v>
       </c>
       <c r="C114" t="n">
         <v>1720426109.91</v>
@@ -1695,10 +1695,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.9425907403998282</v>
+        <v>0.9385293363875734</v>
       </c>
       <c r="B115" t="n">
-        <v>0.004551904376839371</v>
+        <v>0.007532324324657835</v>
       </c>
       <c r="C115" t="n">
         <v>1720426150.02</v>
@@ -1706,10 +1706,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.9430761529457824</v>
+        <v>0.9430065512327557</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0002176600989901228</v>
+        <v>0.007428460329044255</v>
       </c>
       <c r="C116" t="n">
         <v>1720426190.03</v>
@@ -1717,10 +1717,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.9435773608130951</v>
+        <v>0.9443626791709904</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0005016471093945802</v>
+        <v>0.007354629967033746</v>
       </c>
       <c r="C117" t="n">
         <v>1720426230.03</v>
@@ -1728,10 +1728,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.9441242294872919</v>
+        <v>0.9434178843240771</v>
       </c>
       <c r="B118" t="n">
-        <v>0.001182404056545724</v>
+        <v>0.007768862198003304</v>
       </c>
       <c r="C118" t="n">
         <v>1720426270.13</v>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.9445517223681511</v>
+        <v>0.9460123682774908</v>
       </c>
       <c r="B119" t="n">
-        <v>0.001080461486108256</v>
+        <v>0.007500587864235415</v>
       </c>
       <c r="C119" t="n">
         <v>1720426310.17</v>
@@ -1750,10 +1750,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.945111758775256</v>
+        <v>0.9441970319432438</v>
       </c>
       <c r="B120" t="n">
-        <v>0.001135179962116189</v>
+        <v>0.007417363747500941</v>
       </c>
       <c r="C120" t="n">
         <v>1720426350.18</v>
@@ -1761,10 +1761,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.9456932466484315</v>
+        <v>0.9404961519390181</v>
       </c>
       <c r="B121" t="n">
-        <v>0.006109844706816767</v>
+        <v>0.007764780299777459</v>
       </c>
       <c r="C121" t="n">
         <v>1720426390.18</v>
@@ -1772,10 +1772,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.9463038525139174</v>
+        <v>0.9459929423138403</v>
       </c>
       <c r="B122" t="n">
-        <v>0.0004800529125118854</v>
+        <v>0.007505653202609297</v>
       </c>
       <c r="C122" t="n">
         <v>1720426430.18</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.9467593926459736</v>
+        <v>0.9425166564261149</v>
       </c>
       <c r="B123" t="n">
-        <v>0.005351142275495948</v>
+        <v>0.007773896098827275</v>
       </c>
       <c r="C123" t="n">
         <v>1720426470.31</v>
@@ -1794,10 +1794,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.9474676028220437</v>
+        <v>0.9464661325367723</v>
       </c>
       <c r="B124" t="n">
-        <v>0.00168112960466273</v>
+        <v>0.008450413934995052</v>
       </c>
       <c r="C124" t="n">
         <v>1720426510.37</v>
@@ -1805,10 +1805,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.9480358863588147</v>
+        <v>0.9529177492671946</v>
       </c>
       <c r="B125" t="n">
-        <v>0.005144148202057484</v>
+        <v>0.008602036555727962</v>
       </c>
       <c r="C125" t="n">
         <v>1720426550.43</v>
@@ -1816,10 +1816,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.9487078019193929</v>
+        <v>0.9543578978274733</v>
       </c>
       <c r="B126" t="n">
-        <v>0.006178479038734365</v>
+        <v>0.008336421049727292</v>
       </c>
       <c r="C126" t="n">
         <v>1720426590.57</v>
@@ -1827,10 +1827,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.9490973528783848</v>
+        <v>0.94666090586898</v>
       </c>
       <c r="B127" t="n">
-        <v>0.002697662009690438</v>
+        <v>0.0084263302416159</v>
       </c>
       <c r="C127" t="n">
         <v>1720426630.82</v>
@@ -1838,10 +1838,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.9496696915481615</v>
+        <v>0.952025673265436</v>
       </c>
       <c r="B128" t="n">
-        <v>0.002683074578374684</v>
+        <v>0.007741008524790131</v>
       </c>
       <c r="C128" t="n">
         <v>1720426671</v>
@@ -1849,10 +1849,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.9502612035859407</v>
+        <v>0.9529544883086181</v>
       </c>
       <c r="B129" t="n">
-        <v>0.002585299892310651</v>
+        <v>0.007929620699541048</v>
       </c>
       <c r="C129" t="n">
         <v>1720426711.09</v>
@@ -1860,10 +1860,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.9513540019048902</v>
+        <v>0.9524808870966698</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0008069715809077408</v>
+        <v>0.007699079035193496</v>
       </c>
       <c r="C130" t="n">
         <v>1720426751.3</v>
@@ -1871,10 +1871,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.9523612304472575</v>
+        <v>0.9520020738663444</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0001208251650402525</v>
+        <v>0.00776672420649395</v>
       </c>
       <c r="C131" t="n">
         <v>1720426791.39</v>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.9532667558883748</v>
+        <v>0.9560025363304024</v>
       </c>
       <c r="B132" t="n">
-        <v>0.002485678557782214</v>
+        <v>0.008011633379976736</v>
       </c>
       <c r="C132" t="n">
         <v>1720426831.4</v>
@@ -1893,10 +1893,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.9543056968410371</v>
+        <v>0.9555713280043013</v>
       </c>
       <c r="B133" t="n">
-        <v>0.001349829081637149</v>
+        <v>0.007786998133860596</v>
       </c>
       <c r="C133" t="n">
         <v>1720426871.46</v>
@@ -1904,10 +1904,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.9552254670812032</v>
+        <v>0.9540047646963615</v>
       </c>
       <c r="B134" t="n">
-        <v>0.001257898497232699</v>
+        <v>0.008304702022378969</v>
       </c>
       <c r="C134" t="n">
         <v>1720426911.62</v>
@@ -1915,10 +1915,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.9563721064198154</v>
+        <v>0.9550682246611742</v>
       </c>
       <c r="B135" t="n">
-        <v>0.001562826975224536</v>
+        <v>0.007978343198417609</v>
       </c>
       <c r="C135" t="n">
         <v>1720426951.74</v>
@@ -1926,10 +1926,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.9573593738699332</v>
+        <v>0.9583601668085836</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0009797440606030589</v>
+        <v>0.007700080554351187</v>
       </c>
       <c r="C136" t="n">
         <v>1720426991.87</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.9583901203684425</v>
+        <v>0.9592457958983486</v>
       </c>
       <c r="B137" t="n">
-        <v>0.000765746517034089</v>
+        <v>0.007572736135386004</v>
       </c>
       <c r="C137" t="n">
         <v>1720427032.02</v>
@@ -1948,10 +1948,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.9593318724822233</v>
+        <v>0.958225172414362</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0008526756789534695</v>
+        <v>0.007729910362527626</v>
       </c>
       <c r="C138" t="n">
         <v>1720427072.15</v>
@@ -1959,10 +1959,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.9604416782126538</v>
+        <v>0.9604722626200439</v>
       </c>
       <c r="B139" t="n">
-        <v>0.000253956267016911</v>
+        <v>0.008614104554451151</v>
       </c>
       <c r="C139" t="n">
         <v>1720427112.29</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.9616711234421673</v>
+        <v>0.9583957800488495</v>
       </c>
       <c r="B140" t="n">
-        <v>0.00387691217418652</v>
+        <v>0.007846228402750274</v>
       </c>
       <c r="C140" t="n">
         <v>1720427152.29</v>
@@ -1981,10 +1981,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.96272603281534</v>
+        <v>0.9626715296970249</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0005215823367644838</v>
+        <v>0.007973672450692035</v>
       </c>
       <c r="C141" t="n">
         <v>1720427192.48</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.9639117809290844</v>
+        <v>0.961524979029389</v>
       </c>
       <c r="B142" t="n">
-        <v>0.002646192560326124</v>
+        <v>0.007657738518313054</v>
       </c>
       <c r="C142" t="n">
         <v>1720427232.62</v>
@@ -2003,10 +2003,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.9650216480735859</v>
+        <v>0.9624381526311347</v>
       </c>
       <c r="B143" t="n">
-        <v>0.002903938281683241</v>
+        <v>0.007676337669055961</v>
       </c>
       <c r="C143" t="n">
         <v>1720427272.92</v>
@@ -2014,10 +2014,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.9662799874311133</v>
+        <v>0.9662245744688928</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0001372589194457551</v>
+        <v>0.007870632943619399</v>
       </c>
       <c r="C144" t="n">
         <v>1720427313</v>
@@ -2025,10 +2025,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.9673784862934698</v>
+        <v>0.9664111860262048</v>
       </c>
       <c r="B145" t="n">
-        <v>0.001653794136912733</v>
+        <v>0.007696786758157019</v>
       </c>
       <c r="C145" t="n">
         <v>1720427353.23</v>
@@ -2036,10 +2036,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.9684749000606078</v>
+        <v>0.9672601971774778</v>
       </c>
       <c r="B146" t="n">
-        <v>0.001675659045773513</v>
+        <v>0.00788098231988325</v>
       </c>
       <c r="C146" t="n">
         <v>1720427393.29</v>
@@ -2047,10 +2047,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.9692592028258158</v>
+        <v>0.9672987010442047</v>
       </c>
       <c r="B147" t="n">
-        <v>0.002947619782389334</v>
+        <v>0.008818639418753488</v>
       </c>
       <c r="C147" t="n">
         <v>1720427433.35</v>
@@ -2058,10 +2058,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.9703882260617942</v>
+        <v>0.9744284953659923</v>
       </c>
       <c r="B148" t="n">
-        <v>0.004192160295838408</v>
+        <v>0.007762622129952343</v>
       </c>
       <c r="C148" t="n">
         <v>1720427473.41</v>
@@ -2069,10 +2069,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.9713620291876661</v>
+        <v>0.970667786667586</v>
       </c>
       <c r="B149" t="n">
-        <v>0.001629123523912838</v>
+        <v>0.007943976609044468</v>
       </c>
       <c r="C149" t="n">
         <v>1720427513.53</v>
@@ -2080,10 +2080,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.9724718570236714</v>
+        <v>0.9737243806147526</v>
       </c>
       <c r="B150" t="n">
-        <v>0.000975462470956404</v>
+        <v>0.007811025062450703</v>
       </c>
       <c r="C150" t="n">
         <v>1720427553.64</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.9737972341776708</v>
+        <v>0.9745181608256824</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0003697781626333321</v>
+        <v>0.008768927082338595</v>
       </c>
       <c r="C151" t="n">
         <v>1720427593.75</v>
@@ -2102,10 +2102,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.9752732420869821</v>
+        <v>0.979594700183578</v>
       </c>
       <c r="B152" t="n">
-        <v>0.004546640147472123</v>
+        <v>0.008792417117064254</v>
       </c>
       <c r="C152" t="n">
         <v>1720427633.9</v>
@@ -2113,10 +2113,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.9762366672232351</v>
+        <v>0.9829383232730753</v>
       </c>
       <c r="B153" t="n">
-        <v>0.007406398955910293</v>
+        <v>0.009248483130348916</v>
       </c>
       <c r="C153" t="n">
         <v>1720427674.02</v>
@@ -2124,10 +2124,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.9773573417392</v>
+        <v>0.9833349106394572</v>
       </c>
       <c r="B154" t="n">
-        <v>0.006044658730385894</v>
+        <v>0.008079399798965704</v>
       </c>
       <c r="C154" t="n">
         <v>1720427714.28</v>
@@ -2135,10 +2135,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.9784979315291729</v>
+        <v>0.9744940332335583</v>
       </c>
       <c r="B155" t="n">
-        <v>0.004227993483319337</v>
+        <v>0.007938934581638288</v>
       </c>
       <c r="C155" t="n">
         <v>1720427754.3</v>
@@ -2146,10 +2146,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.979839226282948</v>
+        <v>0.9770113560511173</v>
       </c>
       <c r="B156" t="n">
-        <v>0.003624756753602126</v>
+        <v>0.007298509141114557</v>
       </c>
       <c r="C156" t="n">
         <v>1720427794.38</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.9809323330845524</v>
+        <v>0.9811633860103512</v>
       </c>
       <c r="B157" t="n">
-        <v>0.000197917271204858</v>
+        <v>0.007802079171640487</v>
       </c>
       <c r="C157" t="n">
         <v>1720427834.45</v>
@@ -2168,10 +2168,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.982185497238747</v>
+        <v>0.9813352127136056</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0008900517286898236</v>
+        <v>0.007814972391872772</v>
       </c>
       <c r="C158" t="n">
         <v>1720427874.54</v>
@@ -2179,10 +2179,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.9834198252109844</v>
+        <v>0.9843146631927246</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0007183947164419638</v>
+        <v>0.007781651425178779</v>
       </c>
       <c r="C159" t="n">
         <v>1720427914.62</v>
@@ -2190,10 +2190,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.9846858331245605</v>
+        <v>0.9815269740574903</v>
       </c>
       <c r="B160" t="n">
-        <v>0.003700731695365716</v>
+        <v>0.007727272239894572</v>
       </c>
       <c r="C160" t="n">
         <v>1720427954.84</v>
@@ -2201,10 +2201,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.9858573969063177</v>
+        <v>0.9878745270133613</v>
       </c>
       <c r="B161" t="n">
-        <v>0.002170684380442941</v>
+        <v>0.008366031403050039</v>
       </c>
       <c r="C161" t="n">
         <v>1720427994.99</v>
@@ -2212,10 +2212,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.9869329854565739</v>
+        <v>0.9868193555627002</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0007240342969774163</v>
+        <v>0.008315861717324501</v>
       </c>
       <c r="C162" t="n">
         <v>1720428035.08</v>
@@ -2223,10 +2223,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.9878360078529416</v>
+        <v>0.9902860461034627</v>
       </c>
       <c r="B163" t="n">
-        <v>0.001983042437112143</v>
+        <v>0.007863316883444851</v>
       </c>
       <c r="C163" t="n">
         <v>1720428075.41</v>
@@ -2234,10 +2234,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.9888563942683861</v>
+        <v>0.98948805589641</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0001511870166976733</v>
+        <v>0.007836018036174253</v>
       </c>
       <c r="C164" t="n">
         <v>1720428115.42</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.9897340725766107</v>
+        <v>0.9873550703971212</v>
       </c>
       <c r="B165" t="n">
-        <v>0.002499403076627392</v>
+        <v>0.008021721273008219</v>
       </c>
       <c r="C165" t="n">
         <v>1720428155.59</v>
@@ -2256,10 +2256,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.9905836312951547</v>
+        <v>0.9884875095221325</v>
       </c>
       <c r="B166" t="n">
-        <v>0.002498148157330898</v>
+        <v>0.007543804244563181</v>
       </c>
       <c r="C166" t="n">
         <v>1720428195.7</v>
@@ -2267,10 +2267,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.9915281465712885</v>
+        <v>0.9891307735902933</v>
       </c>
       <c r="B167" t="n">
-        <v>0.003160341663361719</v>
+        <v>0.008324518745664259</v>
       </c>
       <c r="C167" t="n">
         <v>1720428235.79</v>
@@ -2278,10 +2278,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.992277425792226</v>
+        <v>0.9935786689278392</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0007085396283475596</v>
+        <v>0.008107742837413017</v>
       </c>
       <c r="C168" t="n">
         <v>1720428275.95</v>
@@ -2289,10 +2289,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.992981089013861</v>
+        <v>0.9877470505683833</v>
       </c>
       <c r="B169" t="n">
-        <v>0.005748043668241425</v>
+        <v>0.008068265126058497</v>
       </c>
       <c r="C169" t="n">
         <v>1720428316.09</v>
@@ -2300,10 +2300,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.9937799815417078</v>
+        <v>0.9958600016324144</v>
       </c>
       <c r="B170" t="n">
-        <v>0.001922160802282803</v>
+        <v>0.008189450431516941</v>
       </c>
       <c r="C170" t="n">
         <v>1720428356.18</v>
@@ -2311,10 +2311,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.9944543349061928</v>
+        <v>0.9951258357497756</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0007027793497997758</v>
+        <v>0.009240336887258655</v>
       </c>
       <c r="C171" t="n">
         <v>1720428396.27</v>
@@ -2322,10 +2322,10 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.9950218305145031</v>
+        <v>1.001800489472781</v>
       </c>
       <c r="B172" t="n">
-        <v>0.00723377970652979</v>
+        <v>0.008684509614594235</v>
       </c>
       <c r="C172" t="n">
         <v>1720428436.42</v>
@@ -2333,10 +2333,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.9956646034379324</v>
+        <v>0.9971753552182993</v>
       </c>
       <c r="B173" t="n">
-        <v>0.001315823661288046</v>
+        <v>0.008257264037301532</v>
       </c>
       <c r="C173" t="n">
         <v>1720428476.42</v>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.9962277550979541</v>
+        <v>0.9975770085764338</v>
       </c>
       <c r="B174" t="n">
-        <v>0.001713072520534807</v>
+        <v>0.008177380161511667</v>
       </c>
       <c r="C174" t="n">
         <v>1720428516.47</v>
@@ -2355,10 +2355,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.9967029094840103</v>
+        <v>0.9966671770231091</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0002326940381088143</v>
+        <v>0.007991363725548102</v>
       </c>
       <c r="C175" t="n">
         <v>1720428556.48</v>
@@ -2366,10 +2366,10 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.9970430087063978</v>
+        <v>0.9965010512512308</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0003627983390342992</v>
+        <v>0.008067974945497339</v>
       </c>
       <c r="C176" t="n">
         <v>1720428596.52</v>
@@ -2377,10 +2377,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.9974562572220513</v>
+        <v>0.9941299039101495</v>
       </c>
       <c r="B177" t="n">
-        <v>0.00405090613055918</v>
+        <v>0.008116443258307203</v>
       </c>
       <c r="C177" t="n">
         <v>1720428636.63</v>
@@ -2388,10 +2388,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.9978374989317079</v>
+        <v>1.00241165812578</v>
       </c>
       <c r="B178" t="n">
-        <v>0.004751786886645349</v>
+        <v>0.008727168215844325</v>
       </c>
       <c r="C178" t="n">
         <v>1720428676.65</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.9983939434534747</v>
+        <v>1.002239241815895</v>
       </c>
       <c r="B179" t="n">
-        <v>0.004664571035714349</v>
+        <v>0.008180571676135624</v>
       </c>
       <c r="C179" t="n">
         <v>1720428716.77</v>
@@ -2410,10 +2410,10 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.9987164939052759</v>
+        <v>1.002850966617401</v>
       </c>
       <c r="B180" t="n">
-        <v>0.004566177122437549</v>
+        <v>0.008202727943278905</v>
       </c>
       <c r="C180" t="n">
         <v>1720428756.77</v>
@@ -2421,10 +2421,10 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.9990173052373872</v>
+        <v>0.9949772587359929</v>
       </c>
       <c r="B181" t="n">
-        <v>0.003912323105199978</v>
+        <v>0.008205614554491057</v>
       </c>
       <c r="C181" t="n">
         <v>1720428796.9</v>
@@ -2432,10 +2432,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.9990789061252175</v>
+        <v>1.00214030633639</v>
       </c>
       <c r="B182" t="n">
-        <v>0.003328159194028474</v>
+        <v>0.008144831787525822</v>
       </c>
       <c r="C182" t="n">
         <v>1720428837.15</v>
@@ -2443,10 +2443,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.9992485765150579</v>
+        <v>0.9985839894169047</v>
       </c>
       <c r="B183" t="n">
-        <v>0.0002807132572803905</v>
+        <v>0.008014898882827831</v>
       </c>
       <c r="C183" t="n">
         <v>1720428877.28</v>
@@ -2454,10 +2454,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.9994778440186481</v>
+        <v>0.9986365427129094</v>
       </c>
       <c r="B184" t="n">
-        <v>0.0005463692992036523</v>
+        <v>0.007936432774773546</v>
       </c>
       <c r="C184" t="n">
         <v>1720428917.45</v>
@@ -2465,10 +2465,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.9996708590984079</v>
+        <v>0.9943001165573815</v>
       </c>
       <c r="B185" t="n">
-        <v>0.005600717101408088</v>
+        <v>0.008760427023396257</v>
       </c>
       <c r="C185" t="n">
         <v>1720428957.45</v>
@@ -2476,10 +2476,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.99970320531579</v>
+        <v>0.9957280728269545</v>
       </c>
       <c r="B186" t="n">
-        <v>0.004543143971787109</v>
+        <v>0.008550138463130871</v>
       </c>
       <c r="C186" t="n">
         <v>1720428997.43</v>
@@ -2487,10 +2487,10 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.9997789425978597</v>
+        <v>0.9995030599973223</v>
       </c>
       <c r="B187" t="n">
-        <v>0.0002691492154021383</v>
+        <v>0.00818004441701088</v>
       </c>
       <c r="C187" t="n">
         <v>1720429037.55</v>
@@ -2498,10 +2498,10 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.9997528197919258</v>
+        <v>1.004508155524264</v>
       </c>
       <c r="B188" t="n">
-        <v>0.005160593857603432</v>
+        <v>0.009214455385462748</v>
       </c>
       <c r="C188" t="n">
         <v>1720429077.61</v>
@@ -2509,10 +2509,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.9996796555406029</v>
+        <v>0.9982484585061197</v>
       </c>
       <c r="B189" t="n">
-        <v>0.001037060174253373</v>
+        <v>0.008124675922603694</v>
       </c>
       <c r="C189" t="n">
         <v>1720429117.86</v>
@@ -2520,10 +2520,10 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.9995443571804657</v>
+        <v>1.002497158956981</v>
       </c>
       <c r="B190" t="n">
-        <v>0.003553046774061413</v>
+        <v>0.008951029819623667</v>
       </c>
       <c r="C190" t="n">
         <v>1720429157.99</v>
@@ -2531,10 +2531,10 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.9994255659778569</v>
+        <v>0.9995113102473558</v>
       </c>
       <c r="B191" t="n">
-        <v>5.818288323201765e-06</v>
+        <v>0.008553186417530351</v>
       </c>
       <c r="C191" t="n">
         <v>1720429198.18</v>
@@ -2542,10 +2542,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.9994731444811786</v>
+        <v>0.9975069102897145</v>
       </c>
       <c r="B192" t="n">
-        <v>0.002036440262997122</v>
+        <v>0.008191375484557751</v>
       </c>
       <c r="C192" t="n">
         <v>1720429238.39</v>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.9993104768711976</v>
+        <v>1.00070755972427</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0009801355367845723</v>
+        <v>0.009361076839788931</v>
       </c>
       <c r="C193" t="n">
         <v>1720429278.47</v>
@@ -2564,10 +2564,10 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.9992114920076942</v>
+        <v>0.9997227096652846</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0005085405301785553</v>
+        <v>0.008840039007908826</v>
       </c>
       <c r="C194" t="n">
         <v>1720429318.6</v>
@@ -2575,10 +2575,10 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.9989896239685141</v>
+        <v>0.9973017153288822</v>
       </c>
       <c r="B195" t="n">
-        <v>0.001650453695049277</v>
+        <v>0.008164442889972404</v>
       </c>
       <c r="C195" t="n">
         <v>1720429358.84</v>
@@ -2586,10 +2586,10 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.9990063154096904</v>
+        <v>0.9981296597502086</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0009525423318121477</v>
+        <v>0.008278048022209807</v>
       </c>
       <c r="C196" t="n">
         <v>1720429398.85</v>
@@ -2597,10 +2597,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.9990368952952753</v>
+        <v>0.9993749057353368</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0006237549697628641</v>
+        <v>0.008312869294986725</v>
       </c>
       <c r="C197" t="n">
         <v>1720429438.97</v>
@@ -2608,10 +2608,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.999068239139014</v>
+        <v>0.9934292060423141</v>
       </c>
       <c r="B198" t="n">
-        <v>0.006198018452806814</v>
+        <v>0.009316601697673515</v>
       </c>
       <c r="C198" t="n">
         <v>1720429479.14</v>
@@ -2619,10 +2619,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.9991003469409263</v>
+        <v>1.000008697724638</v>
       </c>
       <c r="B199" t="n">
-        <v>0.001362161577830073</v>
+        <v>0.007936741903962898</v>
       </c>
       <c r="C199" t="n">
         <v>1720429519.21</v>
@@ -2630,10 +2630,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.9991332187010089</v>
+        <v>0.9968181888896536</v>
       </c>
       <c r="B200" t="n">
-        <v>0.003096065208709075</v>
+        <v>0.007961539088029684</v>
       </c>
       <c r="C200" t="n">
         <v>1720429559.23</v>
@@ -2641,10 +2641,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.9991668544192657</v>
+        <v>1.001404838152026</v>
       </c>
       <c r="B201" t="n">
-        <v>0.002144999090922457</v>
+        <v>0.008210281111682568</v>
       </c>
       <c r="C201" t="n">
         <v>1720429599.44</v>
@@ -2652,10 +2652,10 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.9992012540956958</v>
+        <v>0.9967140782379327</v>
       </c>
       <c r="B202" t="n">
-        <v>0.002277769744414893</v>
+        <v>0.007983138085830274</v>
       </c>
       <c r="C202" t="n">
         <v>1720429639.45</v>
@@ -2663,10 +2663,10 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.9992364177302964</v>
+        <v>1.00099307945888</v>
       </c>
       <c r="B203" t="n">
-        <v>0.002125851235728107</v>
+        <v>0.007802214233464941</v>
       </c>
       <c r="C203" t="n">
         <v>1720429679.44</v>
@@ -2674,10 +2674,10 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.9992723453230704</v>
+        <v>0.9985689107321416</v>
       </c>
       <c r="B204" t="n">
-        <v>0.001454098447320151</v>
+        <v>0.008321392464979293</v>
       </c>
       <c r="C204" t="n">
         <v>1720429719.56</v>
@@ -2685,10 +2685,10 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.9993090368740172</v>
+        <v>1.004193692455424</v>
       </c>
       <c r="B205" t="n">
-        <v>0.005435600977624605</v>
+        <v>0.008575971715236781</v>
       </c>
       <c r="C205" t="n">
         <v>1720429759.61</v>
@@ -2696,10 +2696,10 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.9993464923831359</v>
+        <v>0.9948318838547832</v>
       </c>
       <c r="B206" t="n">
-        <v>0.004966822815318269</v>
+        <v>0.009892388197396389</v>
       </c>
       <c r="C206" t="n">
         <v>1720429799.73</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.999384711850428</v>
+        <v>1.000819902660065</v>
       </c>
       <c r="B207" t="n">
-        <v>0.001637999961814681</v>
+        <v>0.007611081367438979</v>
       </c>
       <c r="C207" t="n">
         <v>1720429839.91</v>
@@ -2718,10 +2718,10 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.999423695275892</v>
+        <v>1.000367880905654</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0003902508429996447</v>
+        <v>0.007710653232383428</v>
       </c>
       <c r="C208" t="n">
         <v>1720429880.09</v>
@@ -2729,10 +2729,10 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.9994634426595297</v>
+        <v>0.995447344488254</v>
       </c>
       <c r="B209" t="n">
-        <v>0.004075024112476423</v>
+        <v>0.007671492019687151</v>
       </c>
       <c r="C209" t="n">
         <v>1720429920.28</v>
@@ -2740,10 +2740,10 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.9995039540013391</v>
+        <v>0.996939256726064</v>
       </c>
       <c r="B210" t="n">
-        <v>0.002777727981875586</v>
+        <v>0.007594202519054618</v>
       </c>
       <c r="C210" t="n">
         <v>1720429960.4</v>
@@ -2751,10 +2751,10 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.9995452293013213</v>
+        <v>0.9968491672662418</v>
       </c>
       <c r="B211" t="n">
-        <v>0.003196904801112649</v>
+        <v>0.008331270808666948</v>
       </c>
       <c r="C211" t="n">
         <v>1720430000.63</v>
@@ -2762,10 +2762,10 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.9995872685594779</v>
+        <v>1.000195182931639</v>
       </c>
       <c r="B212" t="n">
-        <v>6.023480962479717e-05</v>
+        <v>0.008942418248190455</v>
       </c>
       <c r="C212" t="n">
         <v>1720430040.7</v>
@@ -2773,10 +2773,10 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.999630071775801</v>
+        <v>0.9994566293826491</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0002638487385396372</v>
+        <v>0.009708246939777261</v>
       </c>
       <c r="C213" t="n">
         <v>1720430080.82</v>
@@ -2784,10 +2784,10 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.9996736389503001</v>
+        <v>1.003608218734081</v>
       </c>
       <c r="B214" t="n">
-        <v>0.004478142284637465</v>
+        <v>0.009760032933868958</v>
       </c>
       <c r="C214" t="n">
         <v>1720430121.61</v>
@@ -2795,10 +2795,10 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.9997179700829767</v>
+        <v>1.005161944999097</v>
       </c>
       <c r="B215" t="n">
-        <v>0.005521262970400652</v>
+        <v>0.009484766725922524</v>
       </c>
       <c r="C215" t="n">
         <v>1720430161.87</v>
@@ -2806,10 +2806,10 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.9997630651738221</v>
+        <v>1.002381915272726</v>
       </c>
       <c r="B216" t="n">
-        <v>0.002372918706982248</v>
+        <v>0.008217997946688184</v>
       </c>
       <c r="C216" t="n">
         <v>1720430202.05</v>
@@ -2817,10 +2817,10 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.9998089242228362</v>
+        <v>0.9954756021023663</v>
       </c>
       <c r="B217" t="n">
-        <v>0.004423592038626129</v>
+        <v>0.007898962762556064</v>
       </c>
       <c r="C217" t="n">
         <v>1720430242.3</v>
@@ -2828,10 +2828,10 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.999855547230047</v>
+        <v>1.000382756985749</v>
       </c>
       <c r="B218" t="n">
-        <v>0.0008937521925736778</v>
+        <v>0.007466520682111859</v>
       </c>
       <c r="C218" t="n">
         <v>1720430282.33</v>
@@ -2839,10 +2839,10 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.9999029341953293</v>
+        <v>1.00220547400036</v>
       </c>
       <c r="B219" t="n">
-        <v>0.002278279397459263</v>
+        <v>0.007813840705477566</v>
       </c>
       <c r="C219" t="n">
         <v>1720430322.33</v>
@@ -2850,10 +2850,10 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.9999510851192023</v>
+        <v>0.9995455446156486</v>
       </c>
       <c r="B220" t="n">
-        <v>0.0006325974953439314</v>
+        <v>0.007515574693036448</v>
       </c>
       <c r="C220" t="n">
         <v>1720430362.47</v>
@@ -2861,10 +2861,10 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1</v>
+        <v>0.9978334928379353</v>
       </c>
       <c r="B221" t="n">
-        <v>0.001887259056362471</v>
+        <v>0.01483789190836539</v>
       </c>
       <c r="C221" t="n">
         <v>1720430402.47</v>
